--- a/経歴書/スキルシート.xlsx
+++ b/経歴書/スキルシート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ea29b0ff84d189/デスクトップ/git/Public_achievements/経歴書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:4000b_{A73E8980-0B58-4F4A-B1D7-B5CEC2E65A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4118BF-D15D-4641-8BB9-96E48F9A267E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47AD171-9509-4DD7-8713-BCE7B0153691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_1">'[1]#REF!'!$A$1:$Q$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スキルシート!$A$1:$Q$23</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -147,22 +147,6 @@
     <t>宮本晃汰</t>
     <rPh sb="0" eb="4">
       <t>ミヤモトコウタ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>JR総武快速線　千葉駅</t>
-    <rPh sb="2" eb="4">
-      <t>ソウブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイソク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チバ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -276,10 +260,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>基本情報技術者試験、LinuCLV1, AWS DOP , AWS SAA</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>チーム
 5名
 全体
@@ -406,10 +386,6 @@
   </si>
   <si>
     <t>Cloudformation Eventbridge SNS Lambda</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>AWS</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -569,183 +545,173 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>現在、上流工程に携わる機会をもっと早い段階から得たいと思い、SES業界から転職活動をしています。
-お客様からいろいろな業務を任されていく中で、派遣ではなく、自社請負の一員として上流工程に積極的に携わっていきたいと思う気持ちが強くなりました。
-自走で業務を遂行することを心掛けることや納期厳守、進捗報告を自身から積極的に発信することを徹底したことで、お客様先からは高い評価を得ていると弊社営業から伺っています。
-そのため、責任感を持って業務を遂行することができるというのが私の最大の強みだと自負しています。
-また、業務時間外でも積極的に勉強の時間を設けており、今年度よりAWS認定12冠の取得を目指し勉強しています。
-資格取得だけでなく業務内で自身以外が構築した環境やその設計書を業務時間外に読み込むなどして、モチベーション高くAWSの技術向上に努めることができています。
-まだAWSの経験が３年、実務経験が１年ほどの新人ですが御社に入社し、市場価値の高いクラウドエンジニアを目指すつもりですのでよろしくお願いします。</t>
-    <rPh sb="23" eb="24">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
+    <t>東京メトロ日比谷線　茅場町駅</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒビヤセン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カヤバチョウエキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>基本情報技術者試験、LinuCLV1, AWS DOP , AWS SAA , AWS SAP</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AWS　Git　</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　AWSソリューションアーキテクトプロフェッショナル、DevOpsエンジニアプロフェッショナルの認定を取得しているため触ったことのないサービスについても抵抗なく取り組めると思います。
+　AWSサービスのみならず、CLIを使用したスクリプトの作成やCFn、TerraformなどのIaC化、構築後のトラブル対応、アプリケーションのバックエンドの開発にも携わった経験があります。
+　フルリモートの業務の中で私が意識していたことは、こまめな進捗報告と納期厳守、工数の確認の3点です。
+最近までSESでの業種形態ではたらいていましたので、元請けのお客様先との進捗報告などのコミュニケーションや自身の作業範囲、工数を明確にすることで信頼を損なわないように努めてまいりました。このような経験を活かして自身の信頼向上に努めながら御社の業務に貢献していきたいと思っています。
+また、AWS認定の12冠を目指しているための知識向上に励んでいます。
+これからは同時にアウトプットの場をさらに増やしていき、自身の技術向上に努めてまいりたいと思っていますのでよろしくお願いします。</t>
+    <rPh sb="48" eb="50">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サワ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
       <t>オモ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="144" eb="147">
+      <t>コウチクゴ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="217" eb="221">
+      <t>シンチョクホウコク</t>
+    </rPh>
+    <rPh sb="222" eb="226">
+      <t>ノウキゲンシュ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="248" eb="252">
+      <t>ギョウシュケイタイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>モトウ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
       <t>キャクサマ</t>
     </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="272" eb="273">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="275" eb="279">
+      <t>シンチョクホウコク</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="295" eb="299">
+      <t>サギョウハンイ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="322" eb="323">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="340" eb="341">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="347" eb="349">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
       <t>ギョウム</t>
     </rPh>
-    <rPh sb="62" eb="63">
-      <t>マカ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ハケン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ジシャ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ウケオイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>イチイン</t>
-    </rPh>
-    <rPh sb="88" eb="92">
-      <t>ジョウリュウコウテイ</t>
-    </rPh>
-    <rPh sb="93" eb="96">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
+    <rPh sb="363" eb="365">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="372" eb="373">
       <t>オモ</t>
     </rPh>
-    <rPh sb="108" eb="110">
-      <t>キモ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ジソウ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>スイコウ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ココロガ</t>
-    </rPh>
-    <rPh sb="141" eb="145">
-      <t>ノウキゲンシュ</t>
-    </rPh>
-    <rPh sb="146" eb="150">
-      <t>シンチョクホウコク</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="155" eb="158">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ハッシン</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>テッテイ</t>
-    </rPh>
-    <rPh sb="175" eb="178">
-      <t>キャクサマサキ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ヘイシャ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>ウカガ</t>
-    </rPh>
-    <rPh sb="210" eb="213">
-      <t>セキニンカン</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>スイコウ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ジフ</t>
-    </rPh>
-    <rPh sb="257" eb="262">
-      <t>ギョウムジカンガイ</t>
-    </rPh>
-    <rPh sb="264" eb="267">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="271" eb="273">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="393" eb="395">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="397" eb="398">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="399" eb="403">
-      <t>ジツムケイケン</t>
-    </rPh>
-    <rPh sb="405" eb="406">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="409" eb="411">
-      <t>シンジン</t>
-    </rPh>
-    <rPh sb="414" eb="416">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="417" eb="419">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="421" eb="425">
-      <t>シジョウカチ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="438" eb="440">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="453" eb="454">
-      <t>ネガ</t>
+    <rPh sb="421" eb="423">
+      <t>ドウジ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1780,15 +1746,264 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1797,259 +2012,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2352,182 +2318,182 @@
   </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="3.77734375" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
     </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="87">
+        <v>22</v>
+      </c>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
     </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="32">
-        <v>22</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-    </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="10" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -2546,126 +2512,126 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="96" t="s">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="63" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
     </row>
-    <row r="14" spans="1:18" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="64"/>
+    <row r="14" spans="1:18" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="12" t="s">
         <v>18</v>
       </c>
@@ -2688,278 +2654,351 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67">
+    <row r="15" spans="1:18" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
         <v>1</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="52">
         <v>44501</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="52">
         <v>44682</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="H15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="82" t="s">
+      <c r="J15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="92" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="92" t="s">
+      <c r="P15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="94"/>
+      <c r="Q15" s="64"/>
     </row>
-    <row r="16" spans="1:18" s="14" customFormat="1" ht="189.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="95"/>
+    <row r="16" spans="1:18" s="14" customFormat="1" ht="189.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="65"/>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="59">
+    <row r="17" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="47">
         <f>DATEDIF(B15,D15,"M")+1</f>
         <v>7</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="95"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="65"/>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68">
+    <row r="18" spans="1:17" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50">
         <v>2</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="54">
         <v>44713</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="74">
-        <v>45078</v>
+      <c r="C18" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="58">
+        <v>45170</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="J18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" s="14" customFormat="1" ht="255.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="47">
+        <f>DATEDIF(B18,D18,"M")+1</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>3</v>
+      </c>
+      <c r="B21" s="54">
+        <v>44958</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="58">
+        <v>45170</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91" t="s">
+      <c r="H21" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="92" t="s">
+      <c r="N21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="92" t="s">
+      <c r="O21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="92"/>
+      <c r="P21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="19"/>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" ht="255.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
+    <row r="22" spans="1:17" s="14" customFormat="1" ht="320.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
-    <row r="20" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="59">
-        <f>DATEDIF(B18,D18,"M")+1</f>
-        <v>13</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-    </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68">
-        <v>3</v>
-      </c>
-      <c r="B21" s="70">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="74">
-        <v>45078</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="92"/>
-    </row>
-    <row r="22" spans="1:17" s="14" customFormat="1" ht="320.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-    </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="59">
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="47">
         <f>DATEDIF(B21,D21,"M")+1</f>
-        <v>5</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K23"/>
     <mergeCell ref="Q18:Q20"/>
     <mergeCell ref="Q21:Q23"/>
     <mergeCell ref="A13:D14"/>
@@ -2976,79 +3015,6 @@
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="M21:M23"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -3058,7 +3024,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>